--- a/automationdemo.maven/testdata/dataEXP.xlsx
+++ b/automationdemo.maven/testdata/dataEXP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>companyname</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Blue</t>
+  </si>
+  <si>
+    <t>NewCo</t>
+  </si>
+  <si>
+    <t>Bringmegoods</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -400,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +420,7 @@
     <col min="1" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +433,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -436,7 +448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -445,6 +457,14 @@
       </c>
       <c r="C3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/automationdemo.maven/testdata/dataEXP.xlsx
+++ b/automationdemo.maven/testdata/dataEXP.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="19">
   <si>
     <t>companyname</t>
   </si>
@@ -58,12 +58,31 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>^_^</t>
+  </si>
+  <si>
+    <t>i dont like it</t>
+  </si>
+  <si>
+    <t>85434091</t>
+  </si>
+  <si>
+    <t>46065194</t>
+  </si>
+  <si>
+    <t>78242788</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,10 +436,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -447,8 +467,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -458,13 +484,28 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/automationdemo.maven/testdata/dataEXP.xlsx
+++ b/automationdemo.maven/testdata/dataEXP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="22">
   <si>
     <t>companyname</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>78242788</t>
+  </si>
+  <si>
+    <t>38392503</t>
+  </si>
+  <si>
+    <t>09208738</t>
+  </si>
+  <si>
+    <t>17558</t>
   </si>
 </sst>
 </file>
@@ -485,7 +494,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -505,7 +514,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/automationdemo.maven/testdata/dataEXP.xlsx
+++ b/automationdemo.maven/testdata/dataEXP.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8B0C0F-3F86-42B6-9238-F093BD8CB106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
   <si>
     <t>companyname</t>
   </si>
@@ -63,34 +64,70 @@
     <t/>
   </si>
   <si>
-    <t>^_^</t>
-  </si>
-  <si>
     <t>i dont like it</t>
   </si>
   <si>
-    <t>85434091</t>
-  </si>
-  <si>
-    <t>46065194</t>
-  </si>
-  <si>
-    <t>78242788</t>
-  </si>
-  <si>
-    <t>38392503</t>
-  </si>
-  <si>
-    <t>09208738</t>
-  </si>
-  <si>
-    <t>17558</t>
+    <t>4558</t>
+  </si>
+  <si>
+    <t>9258</t>
+  </si>
+  <si>
+    <t>76657076</t>
+  </si>
+  <si>
+    <t>70197</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>85167</t>
+  </si>
+  <si>
+    <t>75541573</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>87859</t>
+  </si>
+  <si>
+    <t>93550521</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>71352</t>
+  </si>
+  <si>
+    <t>02522552</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -436,17 +473,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="15.265625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,10 +514,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -494,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -511,10 +548,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
